--- a/eg_data/NHANES/PF/Waist/Demog.xlsx
+++ b/eg_data/NHANES/PF/Waist/Demog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\Waist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED76263-7024-48F2-A341-65B4C1F20D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80426A93-DDF3-4BCD-9C26-17842B2D19D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="-2475" windowWidth="19770" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29280" yWindow="-2640" windowWidth="19365" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,23 +195,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,7 +492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -508,7 +506,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -545,16 +543,17 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -562,31 +561,31 @@
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f>SUM(E4:H4)</f>
         <v>1915</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>996</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>572</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>171</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>176</v>
       </c>
       <c r="J4" s="2"/>
@@ -596,19 +595,19 @@
       <c r="L4" s="3">
         <v>1915</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <f>E4/D4*100</f>
         <v>52.010443864229764</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="6">
         <f>F4/D4*100</f>
         <v>29.869451697127936</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <f>G4/D4*100</f>
         <v>8.9295039164490859</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="6">
         <f>H4/D4*100</f>
         <v>9.1906005221932112</v>
       </c>
@@ -617,42 +616,41 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f>SUM(E5:H5)</f>
         <v>2123</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1016</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>674</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>216</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>217</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
+      <c r="K5" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="1">
         <v>2123</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="7">
         <f>E5/D5*100</f>
         <v>47.856806406029207</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="7">
         <f>F5/D5*100</f>
         <v>31.747527084314648</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="7">
         <f>G5/D5*100</f>
         <v>10.174281676872351</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="7">
         <f>H5/D5*100</f>
         <v>10.221384832783796</v>
       </c>
@@ -661,56 +659,54 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f>SUM(E7:H7)</f>
         <v>1429</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>773</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>409</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>125</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>122</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
+      <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="1">
         <v>1429</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="7">
         <f>E7/D7*100</f>
         <v>54.093771868439468</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="7">
         <f>F7/D7*100</f>
         <v>28.621413575927225</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="7">
         <f>G7/D7*100</f>
         <v>8.7473757872638203</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="7">
         <f>H7/D7*100</f>
         <v>8.5374387683694888</v>
       </c>
@@ -719,42 +715,41 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f>SUM(E8:H8)</f>
         <v>1297</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>615</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>409</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>136</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>137</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
+      <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="1">
         <v>1297</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="7">
         <f>E8/D8*100</f>
         <v>47.417116422513494</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="7">
         <f>F8/D8*100</f>
         <v>31.5343099460293</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="7">
         <f>G8/D8*100</f>
         <v>10.485736314572089</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="7">
         <f>H8/D8*100</f>
         <v>10.562837316885119</v>
       </c>
@@ -763,42 +758,41 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f>SUM(E9:H9)</f>
         <v>1312</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>624</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>428</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>126</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>134</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
+      <c r="K9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="1">
         <v>1312</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="7">
         <f>E9/D9*100</f>
         <v>47.560975609756099</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="7">
         <f>F9/D9*100</f>
         <v>32.621951219512198</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="7">
         <f>G9/D9*100</f>
         <v>9.6036585365853657</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="7">
         <f>H9/D9*100</f>
         <v>10.213414634146341</v>
       </c>
@@ -807,56 +801,54 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f>SUM(E11:H11)</f>
         <v>1210</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>545</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>438</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>108</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>119</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9" t="s">
+      <c r="K11" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="1">
         <v>1210</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="7">
         <f>E11/D11*100</f>
         <v>45.041322314049587</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="7">
         <f>F11/D11*100</f>
         <v>36.198347107438018</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="7">
         <f>G11/D11*100</f>
         <v>8.9256198347107443</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="7">
         <f>H11/D11*100</f>
         <v>9.8347107438016526</v>
       </c>
@@ -865,42 +857,41 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f>SUM(E12:H12)</f>
         <v>1410</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>708</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>426</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>134</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>142</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
+      <c r="K12" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="1">
         <v>1410</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="7">
         <f>E12/D12*100</f>
         <v>50.212765957446805</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="7">
         <f>F12/D12*100</f>
         <v>30.212765957446809</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="7">
         <f>G12/D12*100</f>
         <v>9.5035460992907801</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="7">
         <f>H12/D12*100</f>
         <v>10.070921985815604</v>
       </c>
@@ -909,42 +900,41 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f>SUM(E13:H13)</f>
         <v>851</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>540</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>223</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>54</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>34</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9" t="s">
+      <c r="K13" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="1">
         <v>851</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="7">
         <f>E13/D13*100</f>
         <v>63.454759106933025</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="7">
         <f>F13/D13*100</f>
         <v>26.204465334900117</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="7">
         <f>G13/D13*100</f>
         <v>6.3454759106933016</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="7">
         <f>H13/D13*100</f>
         <v>3.9952996474735603</v>
       </c>
@@ -953,42 +943,41 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f>SUM(E14:H14)</f>
         <v>410</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>130</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>111</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>79</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>90</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9" t="s">
+      <c r="K14" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="1">
         <v>410</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="7">
         <f>E14/D14*100</f>
         <v>31.707317073170731</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="7">
         <f>F14/D14*100</f>
         <v>27.073170731707318</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="7">
         <f>G14/D14*100</f>
         <v>19.26829268292683</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="7">
         <f>H14/D14*100</f>
         <v>21.951219512195124</v>
       </c>
@@ -997,42 +986,41 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f>SUM(E15:H15)</f>
         <v>157</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>89</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>48</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>12</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>8</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9" t="s">
+      <c r="K15" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="1">
         <v>157</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="7">
         <f>E15/D15*100</f>
         <v>56.687898089171973</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="7">
         <f>F15/D15*100</f>
         <v>30.573248407643312</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="7">
         <f>G15/D15*100</f>
         <v>7.6433121019108281</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="7">
         <f>H15/D15*100</f>
         <v>5.095541401273886</v>
       </c>
@@ -1041,56 +1029,54 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="J16" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f>SUM(E17:H17)</f>
         <v>1638</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>909</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>496</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>115</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>118</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9" t="s">
+      <c r="K17" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="1">
         <v>1638</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="7">
         <f>E17/D17*100</f>
         <v>55.494505494505496</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="7">
         <f>F17/D17*100</f>
         <v>30.28083028083028</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="7">
         <f>G17/D17*100</f>
         <v>7.0207570207570207</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="7">
         <f>H17/D17*100</f>
         <v>7.2039072039072032</v>
       </c>
@@ -1099,42 +1085,41 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f>SUM(E18:H18)</f>
         <v>760</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>393</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>223</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>80</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>64</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9" t="s">
+      <c r="K18" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="1">
         <v>760</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="7">
         <f>E18/D18*100</f>
         <v>51.710526315789473</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="7">
         <f>F18/D18*100</f>
         <v>29.342105263157897</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="7">
         <f>G18/D18*100</f>
         <v>10.526315789473683</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="7">
         <f>H18/D18*100</f>
         <v>8.4210526315789469</v>
       </c>
@@ -1143,42 +1128,41 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <f>SUM(E19:H19)</f>
         <v>1279</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>538</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>395</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>161</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>185</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9" t="s">
+      <c r="K19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="1">
         <v>1279</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="7">
         <f>E19/D19*100</f>
         <v>42.064112587959343</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="7">
         <f>F19/D19*100</f>
         <v>30.883502736512902</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="7">
         <f>G19/D19*100</f>
         <v>12.587959343236903</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="7">
         <f>H19/D19*100</f>
         <v>14.464425332290853</v>
       </c>
@@ -1187,42 +1171,41 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <f>SUM(E20:H20)</f>
         <v>361</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>172</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>132</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>31</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>26</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9" t="s">
+      <c r="K20" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="1">
         <v>361</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="7">
         <f>E20/D20*100</f>
         <v>47.64542936288089</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="7">
         <f>F20/D20*100</f>
         <v>36.56509695290859</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="7">
         <f>G20/D20*100</f>
         <v>8.5872576177285325</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="7">
         <f>H20/D20*100</f>
         <v>7.202216066481995</v>
       </c>
@@ -1231,56 +1214,54 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="J21" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22">
-        <f>SUM(E22:H22)</f>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:D27" si="0">SUM(E22:H22)</f>
         <v>815</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>451</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>258</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>53</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>53</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9" t="s">
+      <c r="K22" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="1">
         <v>815</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="7">
         <f>E22/D22*100</f>
         <v>55.337423312883438</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="7">
         <f>F22/D22*100</f>
         <v>31.656441717791413</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="7">
         <f>G22/D22*100</f>
         <v>6.5030674846625764</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="7">
         <f>H22/D22*100</f>
         <v>6.5030674846625764</v>
       </c>
@@ -1289,42 +1270,41 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23">
-        <f>SUM(E23:H23)</f>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
         <v>1071</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>389</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>344</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>157</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>181</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" t="s">
+      <c r="K23" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="1">
         <v>1071</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="7">
         <f>E23/D23*100</f>
         <v>36.321195144724555</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="7">
         <f>F23/D23*100</f>
         <v>32.119514472455649</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="7">
         <f>G23/D23*100</f>
         <v>14.65919701213819</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="7">
         <f>H23/D23*100</f>
         <v>16.900093370681606</v>
       </c>
@@ -1333,20 +1313,20 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D24">
-        <f>SUM(E24:H24)</f>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
         <v>2152</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>1172</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>644</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>177</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>159</v>
       </c>
       <c r="J24" s="4"/>
@@ -1356,59 +1336,85 @@
       <c r="L24" s="5">
         <v>2152</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="8">
         <f>E24/D24*100</f>
         <v>54.460966542750931</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="8">
         <f>F24/D24*100</f>
         <v>29.92565055762082</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="8">
         <f>G24/D24*100</f>
         <v>8.2249070631970262</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="8">
         <f>H24/D24*100</f>
         <v>7.3884758364312271</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <f>SUM(E25:H25)</f>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <f>SUM(E26:H26)</f>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <f>SUM(E27:H27)</f>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <f>SUM(E30:H30)</f>
         <v>695</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>318</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>238</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>61</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>78</v>
       </c>
     </row>
@@ -1416,20 +1422,20 @@
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <f>SUM(E31:H31)</f>
         <v>515</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>227</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>200</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>47</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>41</v>
       </c>
     </row>
@@ -1437,23 +1443,23 @@
       <c r="C32" t="s">
         <v>27</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <f>SUM(E32:H32)</f>
         <v>1210</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <f>SUM(E30:E31)</f>
         <v>545</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <f>SUM(F30:F31)</f>
         <v>438</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <f>SUM(G30:G31)</f>
         <v>108</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <f>SUM(H30:H31)</f>
         <v>119</v>
       </c>
@@ -1463,5 +1469,6 @@
     <mergeCell ref="M3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eg_data/NHANES/PF/Waist/Demog.xlsx
+++ b/eg_data/NHANES/PF/Waist/Demog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\Waist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80426A93-DDF3-4BCD-9C26-17842B2D19D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5095ADFD-03F0-41FC-BD86-68F2E2E6F4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="-2640" windowWidth="19365" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24540" yWindow="-3075" windowWidth="26565" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>Gender</t>
   </si>
@@ -144,12 +144,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -182,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +216,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P32"/>
+  <dimension ref="B2:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,10 +519,12 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="10" max="10" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="19" max="19" width="4.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
@@ -538,8 +557,25 @@
       <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -567,12 +603,23 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="12">
         <f>SUM(E4:H4)</f>
         <v>1915</v>
       </c>
@@ -596,27 +643,54 @@
         <v>1915</v>
       </c>
       <c r="M4" s="6">
+        <f>E4/$E$6%</f>
+        <v>49.502982107355862</v>
+      </c>
+      <c r="N4" s="13">
+        <f>F4/$F$6%</f>
+        <v>45.906902086677363</v>
+      </c>
+      <c r="O4" s="13">
+        <f>G4/$G$6%</f>
+        <v>44.186046511627907</v>
+      </c>
+      <c r="P4" s="13">
+        <f>H4/$H$6%</f>
+        <v>44.783715012722645</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1915</v>
+      </c>
+      <c r="V4" s="6">
         <f>E4/D4*100</f>
         <v>52.010443864229764</v>
       </c>
-      <c r="N4" s="6">
+      <c r="W4" s="6">
         <f>F4/D4*100</f>
         <v>29.869451697127936</v>
       </c>
-      <c r="O4" s="6">
+      <c r="X4" s="6">
         <f>G4/D4*100</f>
         <v>8.9295039164490859</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Y4" s="6">
         <f>H4/D4*100</f>
         <v>9.1906005221932112</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z4" s="11">
+        <f>SUM(V4:Y4)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="12">
         <f>SUM(E5:H5)</f>
         <v>2123</v>
       </c>
@@ -638,41 +712,88 @@
       <c r="L5" s="1">
         <v>2123</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="13">
+        <f>E5/$E$6%</f>
+        <v>50.497017892644131</v>
+      </c>
+      <c r="N5" s="13">
+        <f>F5/$F$6%</f>
+        <v>54.09309791332263</v>
+      </c>
+      <c r="O5" s="13">
+        <f>G5/$G$6%</f>
+        <v>55.813953488372093</v>
+      </c>
+      <c r="P5" s="13">
+        <f>H5/$H$6%</f>
+        <v>55.216284987277355</v>
+      </c>
+      <c r="T5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2123</v>
+      </c>
+      <c r="V5" s="7">
         <f>E5/D5*100</f>
         <v>47.856806406029207</v>
       </c>
-      <c r="N5" s="7">
+      <c r="W5" s="7">
         <f>F5/D5*100</f>
         <v>31.747527084314648</v>
       </c>
-      <c r="O5" s="7">
+      <c r="X5" s="7">
         <f>G5/D5*100</f>
         <v>10.174281676872351</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Y5" s="7">
         <f>H5/D5*100</f>
         <v>10.221384832783796</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z5" s="11">
+        <f t="shared" ref="Z5:Z23" si="0">SUM(V5:Y5)</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="12">
+        <f>SUM(E4:E5)</f>
+        <v>2012</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" ref="F6:H6" si="1">SUM(F4:F5)</f>
+        <v>1246</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="1"/>
+        <v>393</v>
+      </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+      <c r="N6" s="13"/>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="12">
         <f>SUM(E7:H7)</f>
         <v>1429</v>
       </c>
@@ -694,28 +815,54 @@
       <c r="L7" s="1">
         <v>1429</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="13">
+        <f>E7/$E$6%</f>
+        <v>38.419483101391648</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" ref="N7:N23" si="2">F7/$F$6%</f>
+        <v>32.825040128410912</v>
+      </c>
+      <c r="O7" s="13">
+        <f>G7/$G$6%</f>
+        <v>32.299741602067179</v>
+      </c>
+      <c r="P7" s="13">
+        <f>H7/$H$6%</f>
+        <v>31.043256997455469</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1429</v>
+      </c>
+      <c r="V7" s="7">
         <f>E7/D7*100</f>
         <v>54.093771868439468</v>
       </c>
-      <c r="N7" s="7">
+      <c r="W7" s="7">
         <f>F7/D7*100</f>
         <v>28.621413575927225</v>
       </c>
-      <c r="O7" s="7">
+      <c r="X7" s="7">
         <f>G7/D7*100</f>
         <v>8.7473757872638203</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Y7" s="7">
         <f>H7/D7*100</f>
         <v>8.5374387683694888</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z7" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="12">
         <f>SUM(E8:H8)</f>
         <v>1297</v>
       </c>
@@ -737,28 +884,54 @@
       <c r="L8" s="1">
         <v>1297</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="13">
+        <f t="shared" ref="M8" si="3">E8/$E$6%</f>
+        <v>30.566600397614312</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="2"/>
+        <v>32.825040128410912</v>
+      </c>
+      <c r="O8" s="13">
+        <f>G8/$G$6%</f>
+        <v>35.142118863049092</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" ref="P8:P9" si="4">H8/$H$6%</f>
+        <v>34.860050890585242</v>
+      </c>
+      <c r="T8" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1297</v>
+      </c>
+      <c r="V8" s="7">
         <f>E8/D8*100</f>
         <v>47.417116422513494</v>
       </c>
-      <c r="N8" s="7">
+      <c r="W8" s="7">
         <f>F8/D8*100</f>
         <v>31.5343099460293</v>
       </c>
-      <c r="O8" s="7">
+      <c r="X8" s="7">
         <f>G8/D8*100</f>
         <v>10.485736314572089</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Y8" s="7">
         <f>H8/D8*100</f>
         <v>10.562837316885119</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z8" s="11">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="12">
         <f>SUM(E9:H9)</f>
         <v>1312</v>
       </c>
@@ -780,41 +953,89 @@
       <c r="L9" s="1">
         <v>1312</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="13">
+        <f>E9/$E$6%</f>
+        <v>31.013916500994036</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="2"/>
+        <v>34.34991974317817</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" ref="O9:O23" si="5">G9/$G$6%</f>
+        <v>32.558139534883722</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="4"/>
+        <v>34.096692111959285</v>
+      </c>
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1312</v>
+      </c>
+      <c r="V9" s="7">
         <f>E9/D9*100</f>
         <v>47.560975609756099</v>
       </c>
-      <c r="N9" s="7">
+      <c r="W9" s="7">
         <f>F9/D9*100</f>
         <v>32.621951219512198</v>
       </c>
-      <c r="O9" s="7">
+      <c r="X9" s="7">
         <f>G9/D9*100</f>
         <v>9.6036585365853657</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Y9" s="7">
         <f>H9/D9*100</f>
         <v>10.213414634146341</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z9" s="11">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="12">
+        <f>SUM(E7:E9)</f>
+        <v>2012</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" ref="F10:H10" si="6">SUM(F7:F9)</f>
+        <v>1246</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="6"/>
+        <v>387</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="6"/>
+        <v>393</v>
+      </c>
       <c r="J10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="12">
         <f>SUM(E11:H11)</f>
         <v>1210</v>
       </c>
@@ -836,28 +1057,54 @@
       <c r="L11" s="1">
         <v>1210</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="13">
+        <f>E11/$E$6%</f>
+        <v>27.087475149105366</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="2"/>
+        <v>35.152487961476723</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="5"/>
+        <v>27.906976744186046</v>
+      </c>
+      <c r="P11" s="13">
+        <f>H11/$H$6%</f>
+        <v>30.279898218829516</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1210</v>
+      </c>
+      <c r="V11" s="7">
         <f>E11/D11*100</f>
         <v>45.041322314049587</v>
       </c>
-      <c r="N11" s="7">
+      <c r="W11" s="7">
         <f>F11/D11*100</f>
         <v>36.198347107438018</v>
       </c>
-      <c r="O11" s="7">
+      <c r="X11" s="7">
         <f>G11/D11*100</f>
         <v>8.9256198347107443</v>
       </c>
-      <c r="P11" s="7">
+      <c r="Y11" s="7">
         <f>H11/D11*100</f>
         <v>9.8347107438016526</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z11" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="12">
         <f>SUM(E12:H12)</f>
         <v>1410</v>
       </c>
@@ -879,28 +1126,54 @@
       <c r="L12" s="1">
         <v>1410</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="13">
+        <f t="shared" ref="M12" si="7">E12/$E$6%</f>
+        <v>35.188866799204767</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="2"/>
+        <v>34.189406099518457</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="5"/>
+        <v>34.625322997416021</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" ref="P12" si="8">H12/$H$6%</f>
+        <v>36.132315521628499</v>
+      </c>
+      <c r="T12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1410</v>
+      </c>
+      <c r="V12" s="7">
         <f>E12/D12*100</f>
         <v>50.212765957446805</v>
       </c>
-      <c r="N12" s="7">
+      <c r="W12" s="7">
         <f>F12/D12*100</f>
         <v>30.212765957446809</v>
       </c>
-      <c r="O12" s="7">
+      <c r="X12" s="7">
         <f>G12/D12*100</f>
         <v>9.5035460992907801</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Y12" s="7">
         <f>H12/D12*100</f>
         <v>10.070921985815604</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z12" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="12">
         <f>SUM(E13:H13)</f>
         <v>851</v>
       </c>
@@ -922,28 +1195,54 @@
       <c r="L13" s="1">
         <v>851</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="13">
+        <f>E13/$E$6%</f>
+        <v>26.8389662027833</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="2"/>
+        <v>17.897271268057782</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="5"/>
+        <v>13.953488372093023</v>
+      </c>
+      <c r="P13" s="13">
+        <f>H13/$H$6%</f>
+        <v>8.6513994910941481</v>
+      </c>
+      <c r="T13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" s="1">
+        <v>851</v>
+      </c>
+      <c r="V13" s="7">
         <f>E13/D13*100</f>
         <v>63.454759106933025</v>
       </c>
-      <c r="N13" s="7">
+      <c r="W13" s="7">
         <f>F13/D13*100</f>
         <v>26.204465334900117</v>
       </c>
-      <c r="O13" s="7">
+      <c r="X13" s="7">
         <f>G13/D13*100</f>
         <v>6.3454759106933016</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Y13" s="7">
         <f>H13/D13*100</f>
         <v>3.9952996474735603</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z13" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="12">
         <f>SUM(E14:H14)</f>
         <v>410</v>
       </c>
@@ -965,28 +1264,54 @@
       <c r="L14" s="1">
         <v>410</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="13">
+        <f t="shared" ref="M14" si="9">E14/$E$6%</f>
+        <v>6.4612326043737571</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="2"/>
+        <v>8.9085072231139648</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="5"/>
+        <v>20.413436692506458</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" ref="P14:P15" si="10">H14/$H$6%</f>
+        <v>22.900763358778626</v>
+      </c>
+      <c r="T14" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="1">
+        <v>410</v>
+      </c>
+      <c r="V14" s="7">
         <f>E14/D14*100</f>
         <v>31.707317073170731</v>
       </c>
-      <c r="N14" s="7">
+      <c r="W14" s="7">
         <f>F14/D14*100</f>
         <v>27.073170731707318</v>
       </c>
-      <c r="O14" s="7">
+      <c r="X14" s="7">
         <f>G14/D14*100</f>
         <v>19.26829268292683</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Y14" s="7">
         <f>H14/D14*100</f>
         <v>21.951219512195124</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z14" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="12">
         <f>SUM(E15:H15)</f>
         <v>157</v>
       </c>
@@ -1008,41 +1333,89 @@
       <c r="L15" s="1">
         <v>157</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="13">
+        <f>E15/$E$6%</f>
+        <v>4.4234592445328031</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="2"/>
+        <v>3.8523274478330656</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="5"/>
+        <v>3.1007751937984493</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" si="10"/>
+        <v>2.0356234096692112</v>
+      </c>
+      <c r="T15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="1">
+        <v>157</v>
+      </c>
+      <c r="V15" s="7">
         <f>E15/D15*100</f>
         <v>56.687898089171973</v>
       </c>
-      <c r="N15" s="7">
+      <c r="W15" s="7">
         <f>F15/D15*100</f>
         <v>30.573248407643312</v>
       </c>
-      <c r="O15" s="7">
+      <c r="X15" s="7">
         <f>G15/D15*100</f>
         <v>7.6433121019108281</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Y15" s="7">
         <f>H15/D15*100</f>
         <v>5.095541401273886</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z15" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="12">
+        <f>SUM(E11:E15)</f>
+        <v>2012</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" ref="F16:H16" si="11">SUM(F11:F15)</f>
+        <v>1246</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="11"/>
+        <v>387</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="11"/>
+        <v>393</v>
+      </c>
       <c r="J16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="S16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="12">
         <f>SUM(E17:H17)</f>
         <v>1638</v>
       </c>
@@ -1064,28 +1437,54 @@
       <c r="L17" s="1">
         <v>1638</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="13">
+        <f>E17/$E$6%</f>
+        <v>45.178926441351884</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="2"/>
+        <v>39.807383627608345</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="5"/>
+        <v>29.715762273901809</v>
+      </c>
+      <c r="P17" s="13">
+        <f>H17/$H$6%</f>
+        <v>30.025445292620862</v>
+      </c>
+      <c r="T17" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1638</v>
+      </c>
+      <c r="V17" s="7">
         <f>E17/D17*100</f>
         <v>55.494505494505496</v>
       </c>
-      <c r="N17" s="7">
+      <c r="W17" s="7">
         <f>F17/D17*100</f>
         <v>30.28083028083028</v>
       </c>
-      <c r="O17" s="7">
+      <c r="X17" s="7">
         <f>G17/D17*100</f>
         <v>7.0207570207570207</v>
       </c>
-      <c r="P17" s="7">
+      <c r="Y17" s="7">
         <f>H17/D17*100</f>
         <v>7.2039072039072032</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z17" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="12">
         <f>SUM(E18:H18)</f>
         <v>760</v>
       </c>
@@ -1107,28 +1506,54 @@
       <c r="L18" s="1">
         <v>760</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="13">
+        <f>E18/$E$6%</f>
+        <v>19.532803180914513</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="2"/>
+        <v>17.897271268057782</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="5"/>
+        <v>20.671834625322997</v>
+      </c>
+      <c r="P18" s="13">
+        <f>H18/$H$6%</f>
+        <v>16.284987277353689</v>
+      </c>
+      <c r="T18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="1">
+        <v>760</v>
+      </c>
+      <c r="V18" s="7">
         <f>E18/D18*100</f>
         <v>51.710526315789473</v>
       </c>
-      <c r="N18" s="7">
+      <c r="W18" s="7">
         <f>F18/D18*100</f>
         <v>29.342105263157897</v>
       </c>
-      <c r="O18" s="7">
+      <c r="X18" s="7">
         <f>G18/D18*100</f>
         <v>10.526315789473683</v>
       </c>
-      <c r="P18" s="7">
+      <c r="Y18" s="7">
         <f>H18/D18*100</f>
         <v>8.4210526315789469</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z18" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="12">
         <f>SUM(E19:H19)</f>
         <v>1279</v>
       </c>
@@ -1150,28 +1575,54 @@
       <c r="L19" s="1">
         <v>1279</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="13">
+        <f t="shared" ref="M19" si="12">E19/$E$6%</f>
+        <v>26.739562624254472</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="2"/>
+        <v>31.701444622792934</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" si="5"/>
+        <v>41.60206718346253</v>
+      </c>
+      <c r="P19" s="13">
+        <f t="shared" ref="P19:P20" si="13">H19/$H$6%</f>
+        <v>47.073791348600508</v>
+      </c>
+      <c r="T19" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1279</v>
+      </c>
+      <c r="V19" s="7">
         <f>E19/D19*100</f>
         <v>42.064112587959343</v>
       </c>
-      <c r="N19" s="7">
+      <c r="W19" s="7">
         <f>F19/D19*100</f>
         <v>30.883502736512902</v>
       </c>
-      <c r="O19" s="7">
+      <c r="X19" s="7">
         <f>G19/D19*100</f>
         <v>12.587959343236903</v>
       </c>
-      <c r="P19" s="7">
+      <c r="Y19" s="7">
         <f>H19/D19*100</f>
         <v>14.464425332290853</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z19" s="11">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="12">
         <f>SUM(E20:H20)</f>
         <v>361</v>
       </c>
@@ -1193,42 +1644,90 @@
       <c r="L20" s="1">
         <v>361</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="13">
+        <f>E20/$E$6%</f>
+        <v>8.5487077534791247</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="2"/>
+        <v>10.593900481540929</v>
+      </c>
+      <c r="O20" s="13">
+        <f t="shared" si="5"/>
+        <v>8.0103359173126609</v>
+      </c>
+      <c r="P20" s="13">
+        <f t="shared" si="13"/>
+        <v>6.6157760814249365</v>
+      </c>
+      <c r="T20" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="1">
+        <v>361</v>
+      </c>
+      <c r="V20" s="7">
         <f>E20/D20*100</f>
         <v>47.64542936288089</v>
       </c>
-      <c r="N20" s="7">
+      <c r="W20" s="7">
         <f>F20/D20*100</f>
         <v>36.56509695290859</v>
       </c>
-      <c r="O20" s="7">
+      <c r="X20" s="7">
         <f>G20/D20*100</f>
         <v>8.5872576177285325</v>
       </c>
-      <c r="P20" s="7">
+      <c r="Y20" s="7">
         <f>H20/D20*100</f>
         <v>7.202216066481995</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z20" s="11">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="E21" s="12">
+        <f>SUM(E17:E20)</f>
+        <v>2012</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" ref="F21:H21" si="14">SUM(F17:F20)</f>
+        <v>1246</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="14"/>
+        <v>387</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="14"/>
+        <v>393</v>
+      </c>
       <c r="J21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="S21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" ref="D22:D27" si="0">SUM(E22:H22)</f>
+      <c r="D22" s="12">
+        <f t="shared" ref="D22:D23" si="15">SUM(E22:H22)</f>
         <v>815</v>
       </c>
       <c r="E22" s="1">
@@ -1249,155 +1748,239 @@
       <c r="L22" s="1">
         <v>815</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="13">
+        <f>E22/$E$6%</f>
+        <v>22.415506958250496</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="2"/>
+        <v>20.706260032102726</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="5"/>
+        <v>13.695090439276486</v>
+      </c>
+      <c r="P22" s="13">
+        <f>H22/$H$6%</f>
+        <v>13.486005089058523</v>
+      </c>
+      <c r="T22" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="1">
+        <v>815</v>
+      </c>
+      <c r="V22" s="7">
         <f>E22/D22*100</f>
         <v>55.337423312883438</v>
       </c>
-      <c r="N22" s="7">
+      <c r="W22" s="7">
         <f>F22/D22*100</f>
         <v>31.656441717791413</v>
       </c>
-      <c r="O22" s="7">
+      <c r="X22" s="7">
         <f>G22/D22*100</f>
         <v>6.5030674846625764</v>
       </c>
-      <c r="P22" s="7">
+      <c r="Y22" s="7">
         <f>H22/D22*100</f>
         <v>6.5030674846625764</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z22" s="11">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="15"/>
+        <v>2152</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1172</v>
+      </c>
+      <c r="F23" s="1">
+        <v>644</v>
+      </c>
+      <c r="G23" s="1">
+        <v>177</v>
+      </c>
+      <c r="H23" s="1">
+        <v>159</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="14">
+        <v>2152</v>
+      </c>
+      <c r="M23" s="13">
+        <f>E23/$E$6%</f>
+        <v>58.250497017892641</v>
+      </c>
+      <c r="N23" s="13">
+        <f t="shared" si="2"/>
+        <v>51.685393258426963</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" si="5"/>
+        <v>45.736434108527128</v>
+      </c>
+      <c r="P23" s="13">
+        <f t="shared" ref="P23" si="16">H23/$H$6%</f>
+        <v>40.458015267175568</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U23" s="5">
+        <v>2152</v>
+      </c>
+      <c r="V23" s="8">
+        <f>E23/D23*100</f>
+        <v>54.460966542750931</v>
+      </c>
+      <c r="W23" s="8">
+        <f>F23/D23*100</f>
+        <v>29.92565055762082</v>
+      </c>
+      <c r="X23" s="8">
+        <f>G23/D23*100</f>
+        <v>8.2249070631970262</v>
+      </c>
+      <c r="Y23" s="8">
+        <f>H23/D23*100</f>
+        <v>7.3884758364312271</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
+      <c r="D24" s="12">
+        <f>SUM(E24:H24)</f>
         <v>1071</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>389</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F24" s="1">
         <v>344</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G24" s="1">
         <v>157</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="1">
         <v>181</v>
-      </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1071</v>
-      </c>
-      <c r="M23" s="7">
-        <f>E23/D23*100</f>
-        <v>36.321195144724555</v>
-      </c>
-      <c r="N23" s="7">
-        <f>F23/D23*100</f>
-        <v>32.119514472455649</v>
-      </c>
-      <c r="O23" s="7">
-        <f>G23/D23*100</f>
-        <v>14.65919701213819</v>
-      </c>
-      <c r="P23" s="7">
-        <f>H23/D23*100</f>
-        <v>16.900093370681606</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>2152</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1172</v>
-      </c>
-      <c r="F24" s="1">
-        <v>644</v>
-      </c>
-      <c r="G24" s="1">
-        <v>177</v>
-      </c>
-      <c r="H24" s="1">
-        <v>159</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="5">
-        <v>2152</v>
+        <v>1071</v>
       </c>
       <c r="M24" s="8">
+        <f>E24/$E$6%</f>
+        <v>19.333996023856859</v>
+      </c>
+      <c r="N24" s="8">
+        <f>F24/$F$6%</f>
+        <v>27.608346709470304</v>
+      </c>
+      <c r="O24" s="8">
+        <f>G24/$G$6%</f>
+        <v>40.568475452196381</v>
+      </c>
+      <c r="P24" s="8">
+        <f>H24/$H$6%</f>
+        <v>46.055979643765902</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="T24" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1071</v>
+      </c>
+      <c r="V24" s="7">
         <f>E24/D24*100</f>
-        <v>54.460966542750931</v>
-      </c>
-      <c r="N24" s="8">
+        <v>36.321195144724555</v>
+      </c>
+      <c r="W24" s="7">
         <f>F24/D24*100</f>
-        <v>29.92565055762082</v>
-      </c>
-      <c r="O24" s="8">
+        <v>32.119514472455649</v>
+      </c>
+      <c r="X24" s="7">
         <f>G24/D24*100</f>
-        <v>8.2249070631970262</v>
-      </c>
-      <c r="P24" s="8">
+        <v>14.65919701213819</v>
+      </c>
+      <c r="Y24" s="7">
         <f>H24/D24*100</f>
-        <v>7.3884758364312271</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>16.900093370681606</v>
+      </c>
+      <c r="Z24" s="11">
+        <f>SUM(V24:Y24)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="12">
+        <f>SUM(E22:E24)</f>
+        <v>2012</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" ref="F25:H25" si="17">SUM(F22:F24)</f>
+        <v>1246</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="17"/>
+        <v>387</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="17"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>6</v>
       </c>
@@ -1418,7 +2001,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +2022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>27</v>
       </c>
@@ -1465,10 +2048,113 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="M3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{0A184D5A-B882-4B3C-A16A-BC2831429DCD}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!M4:P4</xm:f>
+              <xm:sqref>Q4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M5:P5</xm:f>
+              <xm:sqref>Q5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M6:P6</xm:f>
+              <xm:sqref>Q6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M7:P7</xm:f>
+              <xm:sqref>Q7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M8:P8</xm:f>
+              <xm:sqref>Q8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M9:P9</xm:f>
+              <xm:sqref>Q9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M10:P10</xm:f>
+              <xm:sqref>Q10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M11:P11</xm:f>
+              <xm:sqref>Q11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M12:P12</xm:f>
+              <xm:sqref>Q12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M13:P13</xm:f>
+              <xm:sqref>Q13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M14:P14</xm:f>
+              <xm:sqref>Q14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M15:P15</xm:f>
+              <xm:sqref>Q15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M16:P16</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M17:P17</xm:f>
+              <xm:sqref>Q17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M18:P18</xm:f>
+              <xm:sqref>Q18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M19:P19</xm:f>
+              <xm:sqref>Q19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M20:P20</xm:f>
+              <xm:sqref>Q20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M21:P21</xm:f>
+              <xm:sqref>Q21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M22:P22</xm:f>
+              <xm:sqref>Q22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M23:P23</xm:f>
+              <xm:sqref>Q23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M24:P24</xm:f>
+              <xm:sqref>Q24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>